--- a/output/fit_clients/fit_round_136.xlsx
+++ b/output/fit_clients/fit_round_136.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2494908146.677647</v>
+        <v>1860652136.629405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07862209950560081</v>
+        <v>0.07925847840580104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04029586430449052</v>
+        <v>0.04021012540051514</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1247454135.516863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2536522074.516204</v>
+        <v>2572313187.728947</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1768484885895067</v>
+        <v>0.1570749935965658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03844488278965637</v>
+        <v>0.04247598928249534</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1268261160.358422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4559927155.390864</v>
+        <v>5219714754.021703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1255382438222555</v>
+        <v>0.1122419889439479</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03710121700868244</v>
+        <v>0.03579990793006251</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2279963631.491843</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3066150697.445032</v>
+        <v>3072412081.862474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07421955460336427</v>
+        <v>0.1042939000093814</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04493686900486273</v>
+        <v>0.0334167843194597</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1533075414.120019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1840982559.541353</v>
+        <v>2488511276.514606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1411067602889847</v>
+        <v>0.138723681276453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05421799963216226</v>
+        <v>0.03887055192299325</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>920491326.5331246</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3063276951.376487</v>
+        <v>3109790518.21679</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0894949784686377</v>
+        <v>0.08874948010769529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0348029974459124</v>
+        <v>0.03804977231756386</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1531638434.489063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3074093433.40678</v>
+        <v>3333936414.231841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1507788886785457</v>
+        <v>0.1859129909368642</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02798075895392256</v>
+        <v>0.02300863889133986</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1537046781.748366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1504572598.911025</v>
+        <v>1565062748.542241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1801572595896078</v>
+        <v>0.1462181465082288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03017910719809891</v>
+        <v>0.03336097306625574</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>752286394.7736994</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4454532821.593262</v>
+        <v>5310316763.343842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1552252348562355</v>
+        <v>0.1962769575961766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03364302788065755</v>
+        <v>0.03640450998050201</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>57</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2227266467.832755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2989430204.438963</v>
+        <v>4100652807.869743</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1301853825971244</v>
+        <v>0.15188930052585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04153086240219928</v>
+        <v>0.03813606190157452</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>56</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1494715044.344918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2489849938.033283</v>
+        <v>3026629613.639287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1219538083772105</v>
+        <v>0.1907372294479161</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04287904483383517</v>
+        <v>0.04060665228975718</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1244924940.25314</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3744537658.700871</v>
+        <v>5037278213.358835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09125886301045237</v>
+        <v>0.08584177695013365</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02362999223480798</v>
+        <v>0.02229674298111337</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>46</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1872268897.205343</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2492067300.514251</v>
+        <v>3409833173.280863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1871813031952027</v>
+        <v>0.1607360288538713</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03178338017473387</v>
+        <v>0.02725339097742608</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1246033721.427305</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1820774745.595813</v>
+        <v>1178850983.107975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09083605874940286</v>
+        <v>0.09375688987295004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03592837509859627</v>
+        <v>0.04166104109823198</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>910387530.9724365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2045797598.698412</v>
+        <v>2698538061.556835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09236725003784639</v>
+        <v>0.09294707640161171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03515341244932281</v>
+        <v>0.03733774993069978</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1022898870.704907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4517054096.992349</v>
+        <v>3976361461.653253</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1101598879442256</v>
+        <v>0.1359615372810655</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03517766891371849</v>
+        <v>0.05264562053819247</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2258527057.505314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2829464787.332493</v>
+        <v>3950446041.424442</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1150650228070926</v>
+        <v>0.1725978441026895</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02618072969710012</v>
+        <v>0.02473523307094334</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1414732436.229325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1363990885.23969</v>
+        <v>1166055611.760521</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1527281536533431</v>
+        <v>0.163963949126084</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02330355843676998</v>
+        <v>0.01979233819354755</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>681995560.4129227</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2647764888.689976</v>
+        <v>1768726138.43512</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1065900640720987</v>
+        <v>0.1480328453019701</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02141477855161283</v>
+        <v>0.02468093371761438</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1323882401.659565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2154282125.539631</v>
+        <v>2232379011.18444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1022415367440384</v>
+        <v>0.08008169610917601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03690791918128669</v>
+        <v>0.04272099683460349</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1077141083.890561</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3092674479.62238</v>
+        <v>2946111803.991238</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1108292155978487</v>
+        <v>0.1448191549247475</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0511403100289445</v>
+        <v>0.05066954337033569</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1546337295.751518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114720629.457475</v>
+        <v>1065011746.220398</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1301335903724737</v>
+        <v>0.162527759111261</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03940507676630613</v>
+        <v>0.04560044700736542</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>557360365.536548</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2724654170.007642</v>
+        <v>3883956315.160397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1200031919186219</v>
+        <v>0.1264786132219511</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03167099019165375</v>
+        <v>0.03655953564892361</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1362327138.691539</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>924301123.0732269</v>
+        <v>1279108185.020954</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1054558841361772</v>
+        <v>0.07516279806133731</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03033743967761195</v>
+        <v>0.02230049453224584</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>462150642.8926886</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1180744942.892672</v>
+        <v>1254466620.111865</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1012546778919003</v>
+        <v>0.09840686697645498</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02542911594643192</v>
+        <v>0.03742733809114104</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>590372487.6960931</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3478653627.62089</v>
+        <v>4379178093.512443</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1509194956321949</v>
+        <v>0.09711074845527445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02505002937135342</v>
+        <v>0.01876637740823732</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1739326849.838543</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3875773061.807864</v>
+        <v>3394433265.251363</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1490381000795293</v>
+        <v>0.1326495286995171</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03277427396866357</v>
+        <v>0.03598712329872777</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1937886618.085453</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4648862780.096309</v>
+        <v>4366970218.57136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1429723393109947</v>
+        <v>0.102828247847718</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03303051389435985</v>
+        <v>0.03368331600768778</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2324431361.939109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1648106809.961709</v>
+        <v>2024993210.614053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09557201588469064</v>
+        <v>0.1357552420763583</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0314132314392505</v>
+        <v>0.03596452558446358</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>824053402.2971449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1097131844.472648</v>
+        <v>1193009094.868151</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09880333362532367</v>
+        <v>0.1084668728768627</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04369754349952512</v>
+        <v>0.03368608274992418</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>548565897.8725382</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1860196030.145898</v>
+        <v>1469683170.543481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0917925047040595</v>
+        <v>0.1199741333200915</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02829562384528262</v>
+        <v>0.02991229339438644</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>930098157.9817518</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2783238129.274288</v>
+        <v>2051162550.30625</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1417082004982776</v>
+        <v>0.127370673217896</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05392541660534043</v>
+        <v>0.05054191839202592</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>41</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1391619078.676672</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>989994885.5628223</v>
+        <v>1323951623.48749</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07620286381647404</v>
+        <v>0.07343183489314044</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02135442067547923</v>
+        <v>0.01915010828421899</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>494997482.2050398</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1273125800.039001</v>
+        <v>847833128.9101843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07743562440878332</v>
+        <v>0.1092984732949954</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04174138473783397</v>
+        <v>0.04273749890832443</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>636562858.6605949</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2424452748.556736</v>
+        <v>2294182905.852138</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1659988287961189</v>
+        <v>0.1139073564110088</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02717530510004623</v>
+        <v>0.02512050532127042</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1212226402.273774</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2690878039.465385</v>
+        <v>2568503511.290382</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07891139625264972</v>
+        <v>0.07309786492228169</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02672826897677865</v>
+        <v>0.02981837489577993</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>36</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1345439142.002751</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2024130666.181907</v>
+        <v>1495283994.620776</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07405306831165957</v>
+        <v>0.07625953549374688</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03190958638569542</v>
+        <v>0.03763662344339481</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1012065308.264538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2185505616.729327</v>
+        <v>1394502370.524958</v>
       </c>
       <c r="F39" t="n">
-        <v>0.134025164071256</v>
+        <v>0.1592366950801393</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02669936758845954</v>
+        <v>0.02355961678334298</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1092752774.680912</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1170063383.258861</v>
+        <v>1222638467.851285</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1033006416550845</v>
+        <v>0.1181529451830713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05528141050900582</v>
+        <v>0.05844607672935508</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>585031740.3867714</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2535370176.764419</v>
+        <v>2690141812.597853</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1578341821403294</v>
+        <v>0.1585730802068771</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0408757085210506</v>
+        <v>0.03716947473346955</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1267685110.190335</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4092243288.912055</v>
+        <v>4345569914.186922</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1239562596872084</v>
+        <v>0.1272644059209129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03561941470589657</v>
+        <v>0.03129023967695518</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2046121680.031736</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2107111421.863391</v>
+        <v>2482887372.323902</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1906935198030566</v>
+        <v>0.1279506550817535</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02473055301058095</v>
+        <v>0.01618937650055136</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>45</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1053555799.068957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2279292495.461393</v>
+        <v>1604621575.021262</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08789055780972628</v>
+        <v>0.08308346771977518</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02233073504199294</v>
+        <v>0.02329713484436698</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1139646409.748186</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2120154249.727448</v>
+        <v>2525561485.974108</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1237877870027567</v>
+        <v>0.1775144024511397</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04882893536873321</v>
+        <v>0.05397170646396182</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1060077127.797205</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4532844735.311565</v>
+        <v>4892471533.486527</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1281371189690027</v>
+        <v>0.1568532402648156</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05545631313490709</v>
+        <v>0.03740708127184273</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2266422367.650391</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4323155219.812282</v>
+        <v>3566308174.880564</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1231600089973211</v>
+        <v>0.1615922630098416</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03776824825383403</v>
+        <v>0.04947010001842177</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>36</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2161577627.337653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3976322776.963287</v>
+        <v>3131970669.778615</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07490473591907229</v>
+        <v>0.06868691936593911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02957372487188459</v>
+        <v>0.0341867913112951</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>46</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1988161424.20899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1823873535.254493</v>
+        <v>1821800523.100928</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1787387946874133</v>
+        <v>0.1692443870496377</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02814419282131437</v>
+        <v>0.03399080075122267</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>911936749.2615634</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2864216742.154828</v>
+        <v>4165733156.952882</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1730861842673975</v>
+        <v>0.1233180489987185</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04245583374686544</v>
+        <v>0.04832486076895973</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>46</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1432108440.524619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1252538572.415185</v>
+        <v>1100076833.550632</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1384458795610219</v>
+        <v>0.1807506558226685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03956380747512753</v>
+        <v>0.0531531321875273</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>626269329.1996977</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4327543012.868196</v>
+        <v>4815081102.323874</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09243706400260336</v>
+        <v>0.0963923938247405</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05826107797468316</v>
+        <v>0.03762447161634188</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>56</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2163771543.591871</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3631426570.713129</v>
+        <v>3394044666.787206</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1580184317483298</v>
+        <v>0.1769989881118557</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03164738289201464</v>
+        <v>0.03545188429206438</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>39</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1815713274.119316</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4193858485.572714</v>
+        <v>3981131286.498477</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1691553673494023</v>
+        <v>0.1277270378746344</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05002772714563152</v>
+        <v>0.03603600504744184</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2096929322.032737</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3577712565.841826</v>
+        <v>3906669570.916787</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155443235315229</v>
+        <v>0.2076127188658557</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02487927237428954</v>
+        <v>0.03216852945058904</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1788856239.168852</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1721226348.543279</v>
+        <v>1206441133.247154</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1204065740268304</v>
+        <v>0.1518918446449741</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05658254862660115</v>
+        <v>0.03762053233764878</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>860613183.6743538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3657774822.440824</v>
+        <v>4455982212.622031</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1440996076648564</v>
+        <v>0.1843183533555902</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02517697394690872</v>
+        <v>0.01843743906788193</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>43</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1828887470.809714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1732970287.516213</v>
+        <v>1239140236.496299</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1893667010965186</v>
+        <v>0.143853994231374</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03594977495389987</v>
+        <v>0.03593338706591315</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>866485153.5879339</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4714008880.70884</v>
+        <v>4051151877.773161</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09268088830786471</v>
+        <v>0.1074556159586224</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04704614473276555</v>
+        <v>0.04392451221870439</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2357004381.83352</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2315896774.727135</v>
+        <v>2505205525.872997</v>
       </c>
       <c r="F60" t="n">
-        <v>0.149342352381807</v>
+        <v>0.1488709105461372</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03024230970837222</v>
+        <v>0.02091797931764728</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1157948385.928649</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2381797383.470255</v>
+        <v>2643077927.600575</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1714974444710818</v>
+        <v>0.1277004672072186</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02719508403592542</v>
+        <v>0.03061154210166534</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1190898730.456896</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2045999971.236912</v>
+        <v>1389759714.624395</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1279235479950761</v>
+        <v>0.1945386697437067</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03490718576029688</v>
+        <v>0.03201040566543074</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1023000050.560531</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3490848458.505247</v>
+        <v>4328997240.349131</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09575688240756129</v>
+        <v>0.1030748993995792</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04373454381817123</v>
+        <v>0.03695013143663044</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1745424314.301262</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3696508627.686625</v>
+        <v>4174667165.263665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1312335396358144</v>
+        <v>0.1769764993630478</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02579418142021793</v>
+        <v>0.03236384955985407</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>42</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1848254328.31176</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3972054831.431744</v>
+        <v>5651044951.009238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1689865832295565</v>
+        <v>0.1334449232703722</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02214198054653728</v>
+        <v>0.03142918900789275</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>49</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1986027435.915064</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5437843531.987323</v>
+        <v>5289450877.325308</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1509082691600541</v>
+        <v>0.1324783500853906</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04149774700192865</v>
+        <v>0.03584015784624311</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2718921816.602612</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3170047329.594298</v>
+        <v>2609507282.733644</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0836399728104182</v>
+        <v>0.06522279703855115</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03573666969604883</v>
+        <v>0.04516686766381402</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>44</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1585023668.588281</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4395759328.823144</v>
+        <v>5518856717.662081</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115521958786833</v>
+        <v>0.1482799012404105</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03631631398438121</v>
+        <v>0.04002164081941111</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>43</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2197879684.135472</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1853958765.094629</v>
+        <v>2418301312.116355</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1178745733276698</v>
+        <v>0.1357150914174423</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03817488774148263</v>
+        <v>0.03630368223394307</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>926979368.575101</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3514000609.021491</v>
+        <v>3488665150.619977</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06423977018166109</v>
+        <v>0.07481486683553083</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03642720328068939</v>
+        <v>0.04212207309635695</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>39</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1757000314.901406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5403992721.814683</v>
+        <v>4858391183.496051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1744853056034036</v>
+        <v>0.1748931279852228</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03307736008823161</v>
+        <v>0.02110793648472338</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2701996496.709406</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1550176078.336057</v>
+        <v>1982227236.000567</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09484331707617134</v>
+        <v>0.1065054195911726</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04884650734419536</v>
+        <v>0.04545885709395632</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>775088058.0289785</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172551467.474255</v>
+        <v>2764519531.507785</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1106680802266748</v>
+        <v>0.1075861187406988</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03920794932850589</v>
+        <v>0.04812349080993421</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1086275805.414073</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665284487.412169</v>
+        <v>2926802934.138653</v>
       </c>
       <c r="F74" t="n">
-        <v>0.146958046899513</v>
+        <v>0.1133529834278097</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03434617545253178</v>
+        <v>0.02621937727801817</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>46</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1332642338.004494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1958390323.553682</v>
+        <v>1609262164.839311</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1469464287297626</v>
+        <v>0.1096274246834493</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02702386953267682</v>
+        <v>0.03476588226375169</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>979195129.8178308</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3738158809.223789</v>
+        <v>3904178050.364923</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09854849238646536</v>
+        <v>0.09944687207129674</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02522141632040498</v>
+        <v>0.02637571877505953</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1869079378.314196</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1427695511.972143</v>
+        <v>2171945100.593363</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1372224028954667</v>
+        <v>0.1578881433946911</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03031154309244151</v>
+        <v>0.03033585691843158</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>713847732.9307775</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3808356228.356538</v>
+        <v>4658678410.46325</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08403890470556909</v>
+        <v>0.0974015126953052</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04828453357133393</v>
+        <v>0.05318315535032662</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>47</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1904178093.58912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1294857867.409064</v>
+        <v>1561776431.523184</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1400750444645667</v>
+        <v>0.1555290327824481</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03670810802671844</v>
+        <v>0.02600440070638149</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>647428931.9561312</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3510679067.817175</v>
+        <v>5596257081.424911</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023970052012941</v>
+        <v>0.1102606302634407</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03243774514034456</v>
+        <v>0.02776792365640049</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1755339509.003423</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4533411205.340637</v>
+        <v>5071574182.453839</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1294886759020633</v>
+        <v>0.1264514486694863</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02201667610727245</v>
+        <v>0.02082478958112468</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2266705585.654883</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4320593203.325576</v>
+        <v>4561174145.141248</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1753107783246847</v>
+        <v>0.156090461040142</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01855753529467294</v>
+        <v>0.02054415281162129</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>49</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2160296623.480254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2313984872.893534</v>
+        <v>1683169621.049226</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09792198696373254</v>
+        <v>0.1243503275777111</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04430611153925134</v>
+        <v>0.03809407046566552</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1156992460.750931</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2351808393.972902</v>
+        <v>2149292502.716061</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115856600663773</v>
+        <v>0.08276882116922921</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03635469913418762</v>
+        <v>0.04979478066560609</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1175904150.41655</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3498828504.026654</v>
+        <v>3108611109.06522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1329732849964603</v>
+        <v>0.1397934113031867</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05354215611589802</v>
+        <v>0.05022991869905723</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>51</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1749414367.176582</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1982804040.306051</v>
+        <v>2397773978.973123</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1162195110580245</v>
+        <v>0.166318649447392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02354868630596368</v>
+        <v>0.02555613944520699</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>991402045.3396807</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1430526265.147669</v>
+        <v>951653355.6939563</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1249643781324002</v>
+        <v>0.1788826711742201</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03666625665336533</v>
+        <v>0.04362575647509529</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>715263247.205406</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2342854069.510213</v>
+        <v>2485785680.327661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1188623574188081</v>
+        <v>0.1280829834678144</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02421146884698441</v>
+        <v>0.02846250342487603</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>54</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1171427000.222604</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2545980762.961275</v>
+        <v>2770682582.007187</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1239044978094249</v>
+        <v>0.1317717128074573</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03821485513231118</v>
+        <v>0.03931770766883522</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1272990452.8338</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2103425598.29802</v>
+        <v>2007847380.307389</v>
       </c>
       <c r="F90" t="n">
-        <v>0.137505330418123</v>
+        <v>0.1314513705476202</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0423583250148839</v>
+        <v>0.05577983161205468</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1051712888.253253</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1661866656.429294</v>
+        <v>1572259312.106241</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1191558787786419</v>
+        <v>0.1317869759508426</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05509400424092762</v>
+        <v>0.05087951354992172</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>830933345.4981126</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2482201656.912312</v>
+        <v>2110924445.625591</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09497962719252391</v>
+        <v>0.09412274574903143</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03511515363181715</v>
+        <v>0.04518711536950177</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1241100811.012251</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3468599077.318036</v>
+        <v>4628105330.065066</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1292556463274628</v>
+        <v>0.1234925536896453</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05377807031967296</v>
+        <v>0.03841621715504799</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1734299573.592249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1689669641.684764</v>
+        <v>2363496849.596526</v>
       </c>
       <c r="F94" t="n">
-        <v>0.115291172125028</v>
+        <v>0.1610291203298798</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02712526167741702</v>
+        <v>0.0419327343201031</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>844834778.7415094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2540232418.099675</v>
+        <v>2532455923.410257</v>
       </c>
       <c r="F95" t="n">
-        <v>0.108448525492006</v>
+        <v>0.1303864935232035</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04128647500892395</v>
+        <v>0.04527112960577118</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1270116242.176056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1496270673.474148</v>
+        <v>2024649413.626891</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1182178810670135</v>
+        <v>0.09557288360716321</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04290988803453292</v>
+        <v>0.04167304863322539</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>748135377.4486499</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4017334517.154707</v>
+        <v>5095146840.927375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.122276793934153</v>
+        <v>0.1654581818700833</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02112256814212119</v>
+        <v>0.02852634487776566</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>44</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2008667316.309341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3553253234.302314</v>
+        <v>2490407712.650703</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09031791828097648</v>
+        <v>0.0883415836083345</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02251767797606515</v>
+        <v>0.03060742423666185</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1776626639.309728</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2248973395.176517</v>
+        <v>2319819647.097342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1194446069057709</v>
+        <v>0.1346045479041053</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03333102969893501</v>
+        <v>0.03519836347773594</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>43</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1124486629.104973</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2991349194.938719</v>
+        <v>3583659796.637152</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148246922119126</v>
+        <v>0.1553359852168816</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02501534547958988</v>
+        <v>0.02329510025406868</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1495674587.577069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2784666651.165497</v>
+        <v>2574199743.74155</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1528771376414629</v>
+        <v>0.220148164878933</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03661167742507006</v>
+        <v>0.05499940767823602</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>56</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1392333386.174904</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_136.xlsx
+++ b/output/fit_clients/fit_round_136.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1860652136.629405</v>
+        <v>1616612225.756212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07925847840580104</v>
+        <v>0.1111319447177491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04021012540051514</v>
+        <v>0.02773608462481663</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2572313187.728947</v>
+        <v>1613679830.926811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570749935965658</v>
+        <v>0.1190756737804762</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04247598928249534</v>
+        <v>0.04184902778494157</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5219714754.021703</v>
+        <v>3663478365.681666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1122419889439479</v>
+        <v>0.1156046189486538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03579990793006251</v>
+        <v>0.03702085167285741</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3072412081.862474</v>
+        <v>4248274417.802229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1042939000093814</v>
+        <v>0.09485726925619849</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0334167843194597</v>
+        <v>0.03922640845761834</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2488511276.514606</v>
+        <v>1940826784.058757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.138723681276453</v>
+        <v>0.1163363229670814</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03887055192299325</v>
+        <v>0.05346747242684071</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3109790518.21679</v>
+        <v>2315637776.263714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08874948010769529</v>
+        <v>0.07719662935661606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03804977231756386</v>
+        <v>0.04763995828626142</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333936414.231841</v>
+        <v>3577576154.338748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1859129909368642</v>
+        <v>0.1725096826336876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02300863889133986</v>
+        <v>0.02530545642996188</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1565062748.542241</v>
+        <v>1731774463.654149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1462181465082288</v>
+        <v>0.1548217481097737</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03336097306625574</v>
+        <v>0.02786679630724304</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5310316763.343842</v>
+        <v>5302980419.802685</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1962769575961766</v>
+        <v>0.1437011000428292</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03640450998050201</v>
+        <v>0.0466848374867604</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4100652807.869743</v>
+        <v>2861603090.243411</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15188930052585</v>
+        <v>0.1410713123606246</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03813606190157452</v>
+        <v>0.03384540932808315</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3026629613.639287</v>
+        <v>2747068548.085152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1907372294479161</v>
+        <v>0.1560550206424055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04060665228975718</v>
+        <v>0.03697423811023599</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5037278213.358835</v>
+        <v>3862410470.694541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08584177695013365</v>
+        <v>0.0815932477980891</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02229674298111337</v>
+        <v>0.01997457469482344</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3409833173.280863</v>
+        <v>3858463168.62724</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1607360288538713</v>
+        <v>0.1827455477212774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02725339097742608</v>
+        <v>0.03529495371040626</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1178850983.107975</v>
+        <v>1748174768.77474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09375688987295004</v>
+        <v>0.06995532734533788</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04166104109823198</v>
+        <v>0.04866568575549027</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2698538061.556835</v>
+        <v>1845555833.156143</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09294707640161171</v>
+        <v>0.07589284809537833</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03733774993069978</v>
+        <v>0.037918970601153</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3976361461.653253</v>
+        <v>3469267143.169373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1359615372810655</v>
+        <v>0.1141326503289607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05264562053819247</v>
+        <v>0.03927177382719757</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3950446041.424442</v>
+        <v>3374503192.978616</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1725978441026895</v>
+        <v>0.1127882065817036</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02473523307094334</v>
+        <v>0.02656742648481938</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1166055611.760521</v>
+        <v>1273948135.21612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.163963949126084</v>
+        <v>0.1627934706332293</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01979233819354755</v>
+        <v>0.02280608147709491</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1768726138.43512</v>
+        <v>2191116845.566044</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1480328453019701</v>
+        <v>0.09786300790080224</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02468093371761438</v>
+        <v>0.02948105174342544</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2232379011.18444</v>
+        <v>2269862751.74442</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08008169610917601</v>
+        <v>0.08967314884433342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04272099683460349</v>
+        <v>0.03154833275272557</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2946111803.991238</v>
+        <v>3391361222.99783</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448191549247475</v>
+        <v>0.1412848192522915</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05066954337033569</v>
+        <v>0.04692454916396514</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1065011746.220398</v>
+        <v>1164250050.255091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.162527759111261</v>
+        <v>0.1592006015731552</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04560044700736542</v>
+        <v>0.04195240426636727</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3883956315.160397</v>
+        <v>3614459339.721177</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1264786132219511</v>
+        <v>0.1271525954079339</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03655953564892361</v>
+        <v>0.02520245158383912</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1279108185.020954</v>
+        <v>1108766927.777266</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07516279806133731</v>
+        <v>0.1150110676419937</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02230049453224584</v>
+        <v>0.02699046758309093</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1254466620.111865</v>
+        <v>1268571061.920007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09840686697645498</v>
+        <v>0.1196515905853678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03742733809114104</v>
+        <v>0.03168382376692816</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4379178093.512443</v>
+        <v>3118669441.366813</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09711074845527445</v>
+        <v>0.1224634066148899</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01876637740823732</v>
+        <v>0.02169387391959597</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3394433265.251363</v>
+        <v>2604964843.000325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1326495286995171</v>
+        <v>0.1230555744362894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03598712329872777</v>
+        <v>0.04214867156762031</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4366970218.57136</v>
+        <v>4261373264.558895</v>
       </c>
       <c r="F29" t="n">
-        <v>0.102828247847718</v>
+        <v>0.1187415297913801</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03368331600768778</v>
+        <v>0.04398677604871626</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2024993210.614053</v>
+        <v>2056441954.910366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1357552420763583</v>
+        <v>0.1315642385944245</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03596452558446358</v>
+        <v>0.03988575861099321</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1193009094.868151</v>
+        <v>958651489.92907</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1084668728768627</v>
+        <v>0.07862468505627861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03368608274992418</v>
+        <v>0.04492780932188515</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1469683170.543481</v>
+        <v>1847191022.794043</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1199741333200915</v>
+        <v>0.1074331819412029</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02991229339438644</v>
+        <v>0.02792759010768981</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2051162550.30625</v>
+        <v>2166964696.870941</v>
       </c>
       <c r="F33" t="n">
-        <v>0.127370673217896</v>
+        <v>0.1558889338246751</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05054191839202592</v>
+        <v>0.04038724823314498</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323951623.48749</v>
+        <v>1454509078.451414</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07343183489314044</v>
+        <v>0.1011623791292883</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01915010828421899</v>
+        <v>0.02390834149105616</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>847833128.9101843</v>
+        <v>1152635432.662292</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1092984732949954</v>
+        <v>0.07511194627811668</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04273749890832443</v>
+        <v>0.0275226215878684</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2294182905.852138</v>
+        <v>2322771495.524689</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1139073564110088</v>
+        <v>0.1221433687734468</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02512050532127042</v>
+        <v>0.02028383853265124</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2568503511.290382</v>
+        <v>2247566011.304589</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07309786492228169</v>
+        <v>0.0739369552383512</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02981837489577993</v>
+        <v>0.03877199473082858</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1495283994.620776</v>
+        <v>2113982370.754119</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07625953549374688</v>
+        <v>0.1188909467283217</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03763662344339481</v>
+        <v>0.03134470581780362</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1394502370.524958</v>
+        <v>1380737310.481638</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1592366950801393</v>
+        <v>0.1581668536815125</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02355961678334298</v>
+        <v>0.02537311104792401</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1222638467.851285</v>
+        <v>1148086109.822182</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1181529451830713</v>
+        <v>0.128564828935775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05844607672935508</v>
+        <v>0.06004635419785975</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2690141812.597853</v>
+        <v>2667061964.032609</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1585730802068771</v>
+        <v>0.1628390503833558</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03716947473346955</v>
+        <v>0.03726813734464315</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4345569914.186922</v>
+        <v>3829422080.98576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1272644059209129</v>
+        <v>0.1137783875085309</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03129023967695518</v>
+        <v>0.03171121099615985</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2482887372.323902</v>
+        <v>2888361906.735113</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1279506550817535</v>
+        <v>0.2047790091165824</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01618937650055136</v>
+        <v>0.02247761739368252</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604621575.021262</v>
+        <v>2128263272.866778</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08308346771977518</v>
+        <v>0.06806266466045027</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02329713484436698</v>
+        <v>0.03124892180929821</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2525561485.974108</v>
+        <v>1774293189.514743</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1775144024511397</v>
+        <v>0.1229241775789914</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05397170646396182</v>
+        <v>0.0506371966716978</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4892471533.486527</v>
+        <v>3554280936.99577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1568532402648156</v>
+        <v>0.1391447011702932</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03740708127184273</v>
+        <v>0.05350696151814452</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3566308174.880564</v>
+        <v>3576163619.826059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1615922630098416</v>
+        <v>0.1423514880277442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04947010001842177</v>
+        <v>0.05810753519440412</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3131970669.778615</v>
+        <v>4630084560.291666</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06868691936593911</v>
+        <v>0.09471992517539653</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0341867913112951</v>
+        <v>0.02375928009611624</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1821800523.100928</v>
+        <v>1470287869.354571</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1692443870496377</v>
+        <v>0.1251541301497161</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03399080075122267</v>
+        <v>0.04414370761752073</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4165733156.952882</v>
+        <v>2751651905.933596</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1233180489987185</v>
+        <v>0.1696448550844159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04832486076895973</v>
+        <v>0.05072249729435307</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1100076833.550632</v>
+        <v>1448872604.234012</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1807506558226685</v>
+        <v>0.1830574013927494</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0531531321875273</v>
+        <v>0.03733692287151965</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4815081102.323874</v>
+        <v>4546040619.351439</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0963923938247405</v>
+        <v>0.09851026599010786</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03762447161634188</v>
+        <v>0.05735633009572581</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3394044666.787206</v>
+        <v>2992742771.712566</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1769989881118557</v>
+        <v>0.1874353791023445</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03545188429206438</v>
+        <v>0.03419311881137965</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3981131286.498477</v>
+        <v>4474512826.984776</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277270378746344</v>
+        <v>0.1073428308110947</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03603600504744184</v>
+        <v>0.04178921080461977</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3906669570.916787</v>
+        <v>3527146333.157907</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2076127188658557</v>
+        <v>0.1685256681247271</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03216852945058904</v>
+        <v>0.0293124934693351</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1206441133.247154</v>
+        <v>1259888171.364205</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1518918446449741</v>
+        <v>0.1172495204695255</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03762053233764878</v>
+        <v>0.05300745526492699</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4455982212.622031</v>
+        <v>3691556657.090904</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1843183533555902</v>
+        <v>0.129589667172419</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01843743906788193</v>
+        <v>0.02769756249883618</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1239140236.496299</v>
+        <v>1232707102.122933</v>
       </c>
       <c r="F58" t="n">
-        <v>0.143853994231374</v>
+        <v>0.1865090330898436</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03593338706591315</v>
+        <v>0.02784703641366929</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4051151877.773161</v>
+        <v>5213016259.705745</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1074556159586224</v>
+        <v>0.1100709755772046</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04392451221870439</v>
+        <v>0.04511862371924175</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2505205525.872997</v>
+        <v>2627467978.364492</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1488709105461372</v>
+        <v>0.181913793798088</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02091797931764728</v>
+        <v>0.02263596371648026</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2643077927.600575</v>
+        <v>3208724910.308615</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1277004672072186</v>
+        <v>0.1173853991341318</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03061154210166534</v>
+        <v>0.02298449637366377</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389759714.624395</v>
+        <v>1377293727.055412</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1945386697437067</v>
+        <v>0.1346628675070574</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03201040566543074</v>
+        <v>0.04942136324685848</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4328997240.349131</v>
+        <v>5092274023.823638</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1030748993995792</v>
+        <v>0.06938067956157822</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03695013143663044</v>
+        <v>0.04215284369088639</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4174667165.263665</v>
+        <v>5145755193.437645</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1769764993630478</v>
+        <v>0.1776240424960967</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03236384955985407</v>
+        <v>0.02484833772093059</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5651044951.009238</v>
+        <v>5911819325.331149</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1334449232703722</v>
+        <v>0.1445670796209756</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03142918900789275</v>
+        <v>0.02841872846815807</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5289450877.325308</v>
+        <v>3968887471.857292</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1324783500853906</v>
+        <v>0.1159945441529546</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03584015784624311</v>
+        <v>0.03902578581792491</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2609507282.733644</v>
+        <v>2138604322.150126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06522279703855115</v>
+        <v>0.08342290446006732</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04516686766381402</v>
+        <v>0.05085751908929179</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5518856717.662081</v>
+        <v>5344525386.589719</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1482799012404105</v>
+        <v>0.1470882338852472</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04002164081941111</v>
+        <v>0.03492919553980828</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2418301312.116355</v>
+        <v>2433741998.730419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1357150914174423</v>
+        <v>0.1551518721680335</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03630368223394307</v>
+        <v>0.05377184942352193</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3488665150.619977</v>
+        <v>3007591218.952775</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07481486683553083</v>
+        <v>0.07198320314799467</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04212207309635695</v>
+        <v>0.0340998315911378</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4858391183.496051</v>
+        <v>3647774178.002095</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1748931279852228</v>
+        <v>0.1256550714987041</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02110793648472338</v>
+        <v>0.03067668725771341</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1982227236.000567</v>
+        <v>1779714767.061213</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065054195911726</v>
+        <v>0.08480699527185283</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04545885709395632</v>
+        <v>0.03486396508846702</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2764519531.507785</v>
+        <v>3330649640.389679</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1075861187406988</v>
+        <v>0.08469990844922382</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04812349080993421</v>
+        <v>0.04109371903852786</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2926802934.138653</v>
+        <v>3721514530.048235</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1133529834278097</v>
+        <v>0.1350614651699594</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02621937727801817</v>
+        <v>0.02951601161766423</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1609262164.839311</v>
+        <v>2359613799.794881</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1096274246834493</v>
+        <v>0.1304182010184453</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03476588226375169</v>
+        <v>0.03330989259861896</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3904178050.364923</v>
+        <v>3910353501.877575</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09944687207129674</v>
+        <v>0.09465841662345607</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02637571877505953</v>
+        <v>0.03020566768384957</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2171945100.593363</v>
+        <v>1764440476.183266</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1578881433946911</v>
+        <v>0.1486896839407899</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03033585691843158</v>
+        <v>0.02808356216991454</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4658678410.46325</v>
+        <v>4380358413.221984</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0974015126953052</v>
+        <v>0.08666966865299959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05318315535032662</v>
+        <v>0.05429971866837544</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1561776431.523184</v>
+        <v>1307249742.357814</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1555290327824481</v>
+        <v>0.1634869234573915</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02600440070638149</v>
+        <v>0.02797967126471546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5596257081.424911</v>
+        <v>5039740136.243619</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1102606302634407</v>
+        <v>0.1042524817222054</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02776792365640049</v>
+        <v>0.02537684299424339</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5071574182.453839</v>
+        <v>4883948091.831077</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1264514486694863</v>
+        <v>0.1327819498393778</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02082478958112468</v>
+        <v>0.02061690456852443</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4561174145.141248</v>
+        <v>5158670702.705603</v>
       </c>
       <c r="F82" t="n">
-        <v>0.156090461040142</v>
+        <v>0.1686501699879848</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02054415281162129</v>
+        <v>0.02658859055033738</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683169621.049226</v>
+        <v>2389379820.26305</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1243503275777111</v>
+        <v>0.1111586266996365</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03809407046566552</v>
+        <v>0.0296262035602804</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2149292502.716061</v>
+        <v>1891296557.249573</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08276882116922921</v>
+        <v>0.1103671742961777</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04979478066560609</v>
+        <v>0.03483616204808344</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3108611109.06522</v>
+        <v>2228524963.550666</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1397934113031867</v>
+        <v>0.1297524765578754</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05022991869905723</v>
+        <v>0.03782543135572156</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2397773978.973123</v>
+        <v>1951136173.01077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166318649447392</v>
+        <v>0.1680966559564185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02555613944520699</v>
+        <v>0.02085389538224507</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>951653355.6939563</v>
+        <v>1234736552.385125</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1788826711742201</v>
+        <v>0.1868423166338283</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04362575647509529</v>
+        <v>0.03855562864920734</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2485785680.327661</v>
+        <v>2314878603.13873</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1280829834678144</v>
+        <v>0.1110351477352954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02846250342487603</v>
+        <v>0.03977900094053279</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2770682582.007187</v>
+        <v>3290400880.835001</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1317717128074573</v>
+        <v>0.1293981358530104</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03931770766883522</v>
+        <v>0.03285181442656508</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2007847380.307389</v>
+        <v>1354801780.860096</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1314513705476202</v>
+        <v>0.1040739400953846</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05577983161205468</v>
+        <v>0.053800856649304</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1572259312.106241</v>
+        <v>1810710336.234792</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1317869759508426</v>
+        <v>0.1290530888009769</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05087951354992172</v>
+        <v>0.0527216908428261</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2110924445.625591</v>
+        <v>2295908313.462212</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09412274574903143</v>
+        <v>0.07496929435805216</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04518711536950177</v>
+        <v>0.03128238879347125</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4628105330.065066</v>
+        <v>3812896496.606985</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1234925536896453</v>
+        <v>0.1110317777833158</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03841621715504799</v>
+        <v>0.03933571450611761</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2363496849.596526</v>
+        <v>1999874702.464962</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1610291203298798</v>
+        <v>0.1584234391337991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0419327343201031</v>
+        <v>0.03381712271539534</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2532455923.410257</v>
+        <v>3276594591.64791</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1303864935232035</v>
+        <v>0.09064314926739853</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04527112960577118</v>
+        <v>0.04204787117705344</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2024649413.626891</v>
+        <v>2288829025.413472</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09557288360716321</v>
+        <v>0.1373112269775758</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04167304863322539</v>
+        <v>0.04464473468752115</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5095146840.927375</v>
+        <v>3280943251.028168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1654581818700833</v>
+        <v>0.1208756389701627</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02852634487776566</v>
+        <v>0.02781912788662099</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2490407712.650703</v>
+        <v>3476906099.261738</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0883415836083345</v>
+        <v>0.08952856706386793</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03060742423666185</v>
+        <v>0.02540692709846424</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2319819647.097342</v>
+        <v>2279550236.364893</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1346045479041053</v>
+        <v>0.1134908104430501</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03519836347773594</v>
+        <v>0.02903044076309058</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3583659796.637152</v>
+        <v>4313482245.742595</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1553359852168816</v>
+        <v>0.1526076253824256</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02329510025406868</v>
+        <v>0.01802326171044497</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2574199743.74155</v>
+        <v>2256409971.875418</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220148164878933</v>
+        <v>0.2166897335502092</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05499940767823602</v>
+        <v>0.0408454416557078</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_136.xlsx
+++ b/output/fit_clients/fit_round_136.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1616612225.756212</v>
+        <v>1681451619.820899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111319447177491</v>
+        <v>0.07501208726684341</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02773608462481663</v>
+        <v>0.03888652692560329</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1613679830.926811</v>
+        <v>1817126552.708697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1190756737804762</v>
+        <v>0.1158876061309016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04184902778494157</v>
+        <v>0.04604295187151221</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3663478365.681666</v>
+        <v>3659261849.411398</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1156046189486538</v>
+        <v>0.1159943633533708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03702085167285741</v>
+        <v>0.03266209032431158</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>135</v>
+      </c>
+      <c r="K4" t="n">
+        <v>107.0648852479207</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4248274417.802229</v>
+        <v>3865601672.419032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09485726925619849</v>
+        <v>0.06942444591432796</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03922640845761834</v>
+        <v>0.03978444638449718</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>135</v>
+      </c>
+      <c r="K5" t="n">
+        <v>133.9077458771947</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1940826784.058757</v>
+        <v>2646920039.618501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163363229670814</v>
+        <v>0.1117034779105121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05346747242684071</v>
+        <v>0.05161492443104056</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2315637776.263714</v>
+        <v>2940036806.975794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07719662935661606</v>
+        <v>0.08600741271527695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04763995828626142</v>
+        <v>0.03243381346253494</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3577576154.338748</v>
+        <v>3372794427.823046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1725096826336876</v>
+        <v>0.1703957226424516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02530545642996188</v>
+        <v>0.02451939997539403</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1731774463.654149</v>
+        <v>1889785421.980133</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1548217481097737</v>
+        <v>0.1870047686933781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02786679630724304</v>
+        <v>0.02402132110856738</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5302980419.802685</v>
+        <v>5907017790.201508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1437011000428292</v>
+        <v>0.2036980283853635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0466848374867604</v>
+        <v>0.04693450131322314</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J10" t="n">
+        <v>136</v>
+      </c>
+      <c r="K10" t="n">
+        <v>159.1742124830906</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2861603090.243411</v>
+        <v>2601113668.889776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1410713123606246</v>
+        <v>0.1180202130544813</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03384540932808315</v>
+        <v>0.04415732045260346</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2747068548.085152</v>
+        <v>2804072409.26449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1560550206424055</v>
+        <v>0.135722532183592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03697423811023599</v>
+        <v>0.03496153419335764</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3862410470.694541</v>
+        <v>3898144648.981144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0815932477980891</v>
+        <v>0.07056214381676519</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01997457469482344</v>
+        <v>0.02491941142326807</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>66</v>
+      </c>
+      <c r="J13" t="n">
+        <v>136</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3858463168.62724</v>
+        <v>2831134202.60748</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1827455477212774</v>
+        <v>0.1529607426698671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03529495371040626</v>
+        <v>0.04326068513184299</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1748174768.77474</v>
+        <v>1540963890.304962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06995532734533788</v>
+        <v>0.09705166255502121</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04866568575549027</v>
+        <v>0.04083633391505295</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1845555833.156143</v>
+        <v>2788424584.921896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07589284809537833</v>
+        <v>0.07452408060556671</v>
       </c>
       <c r="G16" t="n">
-        <v>0.037918970601153</v>
+        <v>0.04498482264140188</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3469267143.169373</v>
+        <v>5282515357.680348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1141326503289607</v>
+        <v>0.1181809136609179</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03927177382719757</v>
+        <v>0.05254029753333998</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>136</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3374503192.978616</v>
+        <v>4002004092.815873</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1127882065817036</v>
+        <v>0.1438899753856654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02656742648481938</v>
+        <v>0.02461538821030936</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="n">
+        <v>125.3363637034971</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1273948135.21612</v>
+        <v>1155086117.712673</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1627934706332293</v>
+        <v>0.1270509315267864</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02280608147709491</v>
+        <v>0.02419029522736365</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2191116845.566044</v>
+        <v>2440488304.530598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09786300790080224</v>
+        <v>0.1326926423352557</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02948105174342544</v>
+        <v>0.02585656754703571</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2269862751.74442</v>
+        <v>1702302906.795558</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08967314884433342</v>
+        <v>0.07559042691872341</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03154833275272557</v>
+        <v>0.04148894282914657</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3391361222.99783</v>
+        <v>3199026492.967705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1412848192522915</v>
+        <v>0.1267242019381892</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04692454916396514</v>
+        <v>0.05706133578095599</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>135</v>
+      </c>
+      <c r="K22" t="n">
+        <v>75.25615596960391</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1164250050.255091</v>
+        <v>984290880.8231755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1592006015731552</v>
+        <v>0.1222166120819796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04195240426636727</v>
+        <v>0.04467423693227343</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3614459339.721177</v>
+        <v>4147788886.611829</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1271525954079339</v>
+        <v>0.1024098423422095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02520245158383912</v>
+        <v>0.02537909283917653</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>39</v>
+      </c>
+      <c r="J24" t="n">
+        <v>136</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1108766927.777266</v>
+        <v>1180782663.08109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1150110676419937</v>
+        <v>0.1167491087352022</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02699046758309093</v>
+        <v>0.02939534907902213</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1268571061.920007</v>
+        <v>994720682.5115113</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1196515905853678</v>
+        <v>0.1184240009783053</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03168382376692816</v>
+        <v>0.03792578250927299</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3118669441.366813</v>
+        <v>2881610901.261509</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1224634066148899</v>
+        <v>0.1262173349370233</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02169387391959597</v>
+        <v>0.02712502013662702</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>133</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2604964843.000325</v>
+        <v>3023576913.817472</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1230555744362894</v>
+        <v>0.120167603078176</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04214867156762031</v>
+        <v>0.03416212977712596</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4261373264.558895</v>
+        <v>3715521687.844602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1187415297913801</v>
+        <v>0.1161624241988384</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04398677604871626</v>
+        <v>0.03273043315292612</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>126</v>
+      </c>
+      <c r="J29" t="n">
+        <v>135</v>
+      </c>
+      <c r="K29" t="n">
+        <v>131.4694230771776</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2056441954.910366</v>
+        <v>1507665168.742023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1315642385944245</v>
+        <v>0.1351164010499358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03988575861099321</v>
+        <v>0.03368193708313431</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>958651489.92907</v>
+        <v>1167593251.816464</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07862468505627861</v>
+        <v>0.09251231954510075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04492780932188515</v>
+        <v>0.03422625516366261</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1847191022.794043</v>
+        <v>1167891038.887068</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074331819412029</v>
+        <v>0.1088922418691937</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02792759010768981</v>
+        <v>0.03664816853450869</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2166964696.870941</v>
+        <v>2169517343.253406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1558889338246751</v>
+        <v>0.2087727232004593</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04038724823314498</v>
+        <v>0.04067410711946847</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1454509078.451414</v>
+        <v>1254510546.131063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1011623791292883</v>
+        <v>0.09737282362987566</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02390834149105616</v>
+        <v>0.02667251530045996</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1152635432.662292</v>
+        <v>1151909128.927457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07511194627811668</v>
+        <v>0.09267104163536162</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0275226215878684</v>
+        <v>0.03050883439485093</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2322771495.524689</v>
+        <v>2400299695.258475</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1221433687734468</v>
+        <v>0.1260087156461209</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02028383853265124</v>
+        <v>0.02227225654195299</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2247566011.304589</v>
+        <v>1998841186.95673</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0739369552383512</v>
+        <v>0.07909446074055512</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03877199473082858</v>
+        <v>0.0279738660543743</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2113982370.754119</v>
+        <v>2003529955.679059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1188909467283217</v>
+        <v>0.116420824200184</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03134470581780362</v>
+        <v>0.03995528909341705</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1380737310.481638</v>
+        <v>2099498248.057211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581668536815125</v>
+        <v>0.1789483694668724</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02537311104792401</v>
+        <v>0.02202022945442012</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1148086109.822182</v>
+        <v>1374138405.628875</v>
       </c>
       <c r="F40" t="n">
-        <v>0.128564828935775</v>
+        <v>0.1300497724369685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06004635419785975</v>
+        <v>0.04849268919781848</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2667061964.032609</v>
+        <v>2853529938.139055</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1628390503833558</v>
+        <v>0.1480252831692999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03726813734464315</v>
+        <v>0.04674512342095635</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3829422080.98576</v>
+        <v>4055586851.242622</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1137783875085309</v>
+        <v>0.1004346255397619</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03171121099615985</v>
+        <v>0.02928898215316731</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>135</v>
+      </c>
+      <c r="K42" t="n">
+        <v>136.3391110049432</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2888361906.735113</v>
+        <v>2514657394.123683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2047790091165824</v>
+        <v>0.1530490215714238</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02247761739368252</v>
+        <v>0.01846613484183003</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2128263272.866778</v>
+        <v>1495199709.860837</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06806266466045027</v>
+        <v>0.09676301862568555</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03124892180929821</v>
+        <v>0.0271743843220021</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1774293189.514743</v>
+        <v>1955948481.565696</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1229241775789914</v>
+        <v>0.1777323392833061</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0506371966716978</v>
+        <v>0.05288713929411616</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3554280936.99577</v>
+        <v>4732324102.934255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1391447011702932</v>
+        <v>0.1559979137553511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05350696151814452</v>
+        <v>0.05351440333303178</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>77</v>
+      </c>
+      <c r="J46" t="n">
+        <v>136</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3576163619.826059</v>
+        <v>3811594928.274368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1423514880277442</v>
+        <v>0.1737660822236473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05810753519440412</v>
+        <v>0.05175857154890723</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>60</v>
+      </c>
+      <c r="J47" t="n">
+        <v>136</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4630084560.291666</v>
+        <v>3645358405.709741</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09471992517539653</v>
+        <v>0.1069356156754271</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02375928009611624</v>
+        <v>0.03180818037348476</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>55</v>
+      </c>
+      <c r="J48" t="n">
+        <v>136</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1470287869.354571</v>
+        <v>1895052593.283253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1251541301497161</v>
+        <v>0.1488008005629778</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04414370761752073</v>
+        <v>0.03920810746527025</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2751651905.933596</v>
+        <v>2700381278.343243</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1696448550844159</v>
+        <v>0.1338784887003412</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05072249729435307</v>
+        <v>0.04887328254276069</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1448872604.234012</v>
+        <v>1273627357.798884</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1830574013927494</v>
+        <v>0.1884575189106234</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03733692287151965</v>
+        <v>0.04198738391010627</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4546040619.351439</v>
+        <v>4913664358.81202</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09851026599010786</v>
+        <v>0.1132046121800599</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05735633009572581</v>
+        <v>0.04925085121325397</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>102</v>
+      </c>
+      <c r="J52" t="n">
+        <v>136</v>
+      </c>
+      <c r="K52" t="n">
+        <v>146.9568687668115</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2992742771.712566</v>
+        <v>3071598804.30009</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1874353791023445</v>
+        <v>0.1780606948943838</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03419311881137965</v>
+        <v>0.02892544456268475</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4474512826.984776</v>
+        <v>4447876350.943873</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1073428308110947</v>
+        <v>0.1123042286283793</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04178921080461977</v>
+        <v>0.047864900028214</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>62</v>
+      </c>
+      <c r="J54" t="n">
+        <v>135</v>
+      </c>
+      <c r="K54" t="n">
+        <v>146.7376008188111</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3527146333.157907</v>
+        <v>3576445979.54716</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1685256681247271</v>
+        <v>0.1791951473139732</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0293124934693351</v>
+        <v>0.02460769609446083</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>62</v>
+      </c>
+      <c r="J55" t="n">
+        <v>136</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1259888171.364205</v>
+        <v>1163810118.935557</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1172495204695255</v>
+        <v>0.1139372223655481</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05300745526492699</v>
+        <v>0.05378692971940239</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3691556657.090904</v>
+        <v>4213483269.335016</v>
       </c>
       <c r="F57" t="n">
-        <v>0.129589667172419</v>
+        <v>0.1828290310378861</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02769756249883618</v>
+        <v>0.02552330516874464</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54</v>
+      </c>
+      <c r="J57" t="n">
+        <v>136</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1232707102.122933</v>
+        <v>1773905360.911465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1865090330898436</v>
+        <v>0.1251009043471501</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02784703641366929</v>
+        <v>0.03244316881781581</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5213016259.705745</v>
+        <v>3607418813.821283</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1100709755772046</v>
+        <v>0.1163146441270956</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04511862371924175</v>
+        <v>0.04926664670050422</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>66</v>
+      </c>
+      <c r="J59" t="n">
+        <v>135</v>
+      </c>
+      <c r="K59" t="n">
+        <v>98.30042914714893</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2627467978.364492</v>
+        <v>2356256521.227974</v>
       </c>
       <c r="F60" t="n">
-        <v>0.181913793798088</v>
+        <v>0.1317897868513554</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02263596371648026</v>
+        <v>0.03059948389025973</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3208724910.308615</v>
+        <v>3169224591.507765</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1173853991341318</v>
+        <v>0.1231105604539096</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02298449637366377</v>
+        <v>0.02829869666917139</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1377293727.055412</v>
+        <v>2066464492.911334</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1346628675070574</v>
+        <v>0.1364152028049656</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04942136324685848</v>
+        <v>0.03823544085765533</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5092274023.823638</v>
+        <v>4545044342.050009</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06938067956157822</v>
+        <v>0.07893158609862752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04215284369088639</v>
+        <v>0.02979323248742159</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>67</v>
+      </c>
+      <c r="J63" t="n">
+        <v>135</v>
+      </c>
+      <c r="K63" t="n">
+        <v>130.919958232164</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5145755193.437645</v>
+        <v>5352683493.46345</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1776240424960967</v>
+        <v>0.1399727361406952</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02484833772093059</v>
+        <v>0.03293940848612244</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>67</v>
+      </c>
+      <c r="J64" t="n">
+        <v>136</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5911819325.331149</v>
+        <v>4338262653.586862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1445670796209756</v>
+        <v>0.1346777970504549</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02841872846815807</v>
+        <v>0.03220699998516602</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>113</v>
+      </c>
+      <c r="J65" t="n">
+        <v>136</v>
+      </c>
+      <c r="K65" t="n">
+        <v>147.065623581275</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3968887471.857292</v>
+        <v>5272743513.226245</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1159945441529546</v>
+        <v>0.1608354232105108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03902578581792491</v>
+        <v>0.04552825879363862</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>67</v>
+      </c>
+      <c r="J66" t="n">
+        <v>135</v>
+      </c>
+      <c r="K66" t="n">
+        <v>134.6328012057518</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138604322.150126</v>
+        <v>3293381058.498597</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08342290446006732</v>
+        <v>0.09474287432014981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05085751908929179</v>
+        <v>0.0408108068482122</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5344525386.589719</v>
+        <v>5219924059.036498</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1470882338852472</v>
+        <v>0.1140120857048084</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03492919553980828</v>
+        <v>0.03536808804341666</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>68</v>
+      </c>
+      <c r="J68" t="n">
+        <v>136</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2433741998.730419</v>
+        <v>1971899207.474691</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1551518721680335</v>
+        <v>0.1188420885040471</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05377184942352193</v>
+        <v>0.05508230240163436</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3007591218.952775</v>
+        <v>3297518780.839096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07198320314799467</v>
+        <v>0.08838720862761104</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0340998315911378</v>
+        <v>0.03138439893195516</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3647774178.002095</v>
+        <v>4576771371.944798</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1256550714987041</v>
+        <v>0.1459741905320537</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03067668725771341</v>
+        <v>0.03299308548813058</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>109</v>
+      </c>
+      <c r="J71" t="n">
+        <v>136</v>
+      </c>
+      <c r="K71" t="n">
+        <v>146.7956600881881</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1779714767.061213</v>
+        <v>1782030573.882498</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08480699527185283</v>
+        <v>0.08926070557635848</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03486396508846702</v>
+        <v>0.03386371095210423</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3330649640.389679</v>
+        <v>3218176963.580623</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08469990844922382</v>
+        <v>0.07844167728095913</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04109371903852786</v>
+        <v>0.0386198810490017</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3721514530.048235</v>
+        <v>3491707490.509755</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1350614651699594</v>
+        <v>0.1243300042392196</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02951601161766423</v>
+        <v>0.02172765473689226</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>44</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2359613799.794881</v>
+        <v>1800275049.091719</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1304182010184453</v>
+        <v>0.1344467962001692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03330989259861896</v>
+        <v>0.03544639761162856</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3910353501.877575</v>
+        <v>3790144150.203325</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09465841662345607</v>
+        <v>0.1019187458520342</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03020566768384957</v>
+        <v>0.03192530395596419</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>62</v>
+      </c>
+      <c r="J76" t="n">
+        <v>136</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1764440476.183266</v>
+        <v>2315384273.146005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1486896839407899</v>
+        <v>0.1579268477221804</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02808356216991454</v>
+        <v>0.0247012301151375</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4380358413.221984</v>
+        <v>3255536113.858481</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08666966865299959</v>
+        <v>0.103784757477905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05429971866837544</v>
+        <v>0.04920280139198548</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>135</v>
+      </c>
+      <c r="K78" t="n">
+        <v>89.02767376477046</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1307249742.357814</v>
+        <v>1789922768.847863</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1634869234573915</v>
+        <v>0.1507925576678836</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02797967126471546</v>
+        <v>0.04076297118374149</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5039740136.243619</v>
+        <v>5502723704.941276</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042524817222054</v>
+        <v>0.10839877608268</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02537684299424339</v>
+        <v>0.03460471383084381</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>66</v>
+      </c>
+      <c r="J80" t="n">
+        <v>135</v>
+      </c>
+      <c r="K80" t="n">
+        <v>107.7714681322645</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4883948091.831077</v>
+        <v>4630794967.678477</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1327819498393778</v>
+        <v>0.1255962746335658</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02061690456852443</v>
+        <v>0.02870323495892255</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>62</v>
+      </c>
+      <c r="J81" t="n">
+        <v>135</v>
+      </c>
+      <c r="K81" t="n">
+        <v>124.1389197807701</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5158670702.705603</v>
+        <v>4512316810.723466</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1686501699879848</v>
+        <v>0.1811542105473616</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02658859055033738</v>
+        <v>0.02128520715146305</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>97</v>
+      </c>
+      <c r="J82" t="n">
+        <v>136</v>
+      </c>
+      <c r="K82" t="n">
+        <v>154.222133111587</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2389379820.26305</v>
+        <v>2335570182.697601</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1111586266996365</v>
+        <v>0.1492293712952646</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0296262035602804</v>
+        <v>0.03939086998046643</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1891296557.249573</v>
+        <v>1809778357.239563</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1103671742961777</v>
+        <v>0.09871727106780478</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03483616204808344</v>
+        <v>0.03311620686905525</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2228524963.550666</v>
+        <v>2665645149.420413</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1297524765578754</v>
+        <v>0.142292767496539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03782543135572156</v>
+        <v>0.04065898564667693</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>133</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1951136173.01077</v>
+        <v>2572504060.531475</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1680966559564185</v>
+        <v>0.1149340562076171</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02085389538224507</v>
+        <v>0.02400522821385737</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1234736552.385125</v>
+        <v>1169947187.057326</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1868423166338283</v>
+        <v>0.1210569836593187</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03855562864920734</v>
+        <v>0.02960123097542313</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2314878603.13873</v>
+        <v>2597950226.015385</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1110351477352954</v>
+        <v>0.1311797951383957</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03977900094053279</v>
+        <v>0.03554238728971724</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3290400880.835001</v>
+        <v>3010087912.227746</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1293981358530104</v>
+        <v>0.09764156316081077</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03285181442656508</v>
+        <v>0.02892883378101441</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1354801780.860096</v>
+        <v>1626099114.857443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040739400953846</v>
+        <v>0.09129188136854272</v>
       </c>
       <c r="G90" t="n">
-        <v>0.053800856649304</v>
+        <v>0.04344164634618266</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1810710336.234792</v>
+        <v>1553435101.938614</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1290530888009769</v>
+        <v>0.186908542896673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0527216908428261</v>
+        <v>0.0480256972014119</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2295908313.462212</v>
+        <v>2865168756.562976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07496929435805216</v>
+        <v>0.1025009860276696</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03128238879347125</v>
+        <v>0.0312454150462754</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3812896496.606985</v>
+        <v>3353733853.13995</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1110317777833158</v>
+        <v>0.1268457030094736</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03933571450611761</v>
+        <v>0.03409720997557691</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>61</v>
+      </c>
+      <c r="J93" t="n">
+        <v>136</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1999874702.464962</v>
+        <v>2250352214.796214</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1584234391337991</v>
+        <v>0.1592311573533354</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03381712271539534</v>
+        <v>0.03010641092281674</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3276594591.64791</v>
+        <v>2170370473.475377</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09064314926739853</v>
+        <v>0.09099617629665296</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04204787117705344</v>
+        <v>0.0358312450084799</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2288829025.413472</v>
+        <v>1862011077.926287</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1373112269775758</v>
+        <v>0.1227064056279788</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04464473468752115</v>
+        <v>0.0365761454584288</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3280943251.028168</v>
+        <v>4219623951.046495</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1208756389701627</v>
+        <v>0.1434036055467271</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02781912788662099</v>
+        <v>0.02722516206020172</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>65</v>
+      </c>
+      <c r="J97" t="n">
+        <v>135</v>
+      </c>
+      <c r="K97" t="n">
+        <v>141.5163249754703</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3476906099.261738</v>
+        <v>2475702783.141938</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08952856706386793</v>
+        <v>0.09009239762743958</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02540692709846424</v>
+        <v>0.02126748101265724</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3928,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2279550236.364893</v>
+        <v>3085819092.098553</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1134908104430501</v>
+        <v>0.1208285714527809</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02903044076309058</v>
+        <v>0.031470920026909</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="n">
+        <v>75.40647109756422</v>
       </c>
     </row>
     <row r="100">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4313482245.742595</v>
+        <v>4368057046.845917</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1526076253824256</v>
+        <v>0.1366129809480732</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01802326171044497</v>
+        <v>0.02588279961842297</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>55</v>
+      </c>
+      <c r="J100" t="n">
+        <v>136</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2256409971.875418</v>
+        <v>2649634260.498299</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2166897335502092</v>
+        <v>0.2048142851209359</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0408454416557078</v>
+        <v>0.04853070086615787</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
